--- a/biology/Médecine/Charles_Pajot/Charles_Pajot.xlsx
+++ b/biology/Médecine/Charles_Pajot/Charles_Pajot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Marius Edme Pajot, né le 18 décembre 1816 à Paris et mort à 25 juillet 1896 à Souppes-sur-Loing[1], est un médecin français, professeur d'accouchement (1863) puis de clinique obstétricale (1883) à la Faculté de médecine de Paris, membre de l'Académie de médecine. Il est considéré comme l'un des fondateurs de l'obstétrique moderne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Marius Edme Pajot, né le 18 décembre 1816 à Paris et mort à 25 juillet 1896 à Souppes-sur-Loing, est un médecin français, professeur d'accouchement (1863) puis de clinique obstétricale (1883) à la Faculté de médecine de Paris, membre de l'Académie de médecine. Il est considéré comme l'un des fondateurs de l'obstétrique moderne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il poursuit ses études à Paris et soutient sa thèse de doctorat en 1842. Il se consacre aux accouchements. Il donne des cours magistraux à partir de 1843 et devient chef de clinique d'accouchements à partir de 1852, puis professeur agrégé en 1853. Il devint professeur d'obstétrique en 1883. Ses cours d’accouchement (années 1863-64-65) sont recueillis par Léon Belloc. Il est l'un des éditeurs scientifiques de la revue  Annales de gynécologie et d'obstétrique. Il est le maître d' Adolphe Pinard, auquel ce dernier succédera. Républicain déterminé, il publie en mars 1871 une brochure où il affirme que la République, de droit naturel, est au-dessus des majorités.
 </t>
@@ -542,12 +556,14 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Forceps de Pajot[2],[3] : « Forceps court, à branches croisées, dont les cuillères sont fenêtrées avec une courbure pelvienne peu marquée et une courbure céphalique importante. »
-Sonde de Pajot : sonde intra-utérine, composée d'une gouttière et d'un canal cylindrique qui sert de conduite à l'eau d'injection[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Forceps de Pajot, : « Forceps court, à branches croisées, dont les cuillères sont fenêtrées avec une courbure pelvienne peu marquée et une courbure céphalique importante. »
+Sonde de Pajot : sonde intra-utérine, composée d'une gouttière et d'un canal cylindrique qui sert de conduite à l'eau d'injection
 Manœuvre de Pajot : « Manœuvre permettant d’abaisser le ou les bras du fœtus en présentation du siège. »
-Loi d’accommodation (ou théorie) de Pajot : « Loi selon laquelle le fœtus adapte sa position intra-utérine au cours de la grossesse en fonction de la morphologie de la cavité endo-utérine. » et selon la formulation d'Adolphe Pinard: « Quand un corps solide est contenu dans un autre, si le contenant est le siège d'alternatives de mouvement et de repos, si les surfaces sont glissantes et peu anguleuses, le contenu tendra sans cesse à accommoder sa forme et ses dimensions aux formes et à la capacité du contenant. »[5]</t>
+Loi d’accommodation (ou théorie) de Pajot : « Loi selon laquelle le fœtus adapte sa position intra-utérine au cours de la grossesse en fonction de la morphologie de la cavité endo-utérine. » et selon la formulation d'Adolphe Pinard: « Quand un corps solide est contenu dans un autre, si le contenant est le siège d'alternatives de mouvement et de repos, si les surfaces sont glissantes et peu anguleuses, le contenu tendra sans cesse à accommoder sa forme et ses dimensions aux formes et à la capacité du contenant. »</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Des effets de l'inhalation des vapeurs d'éther, de son action sur l'homme sain et dans les opérations chirurgicales comme moyen d'éviter la douleur : résumé de toutes les expériences faites, à l'étranger et en France par MM. Roux, Velpeau, P. Dubois, Gerdy, Blandin, Malgaigne, Baudens, Ricord, Jobert, etc., etc., P. Masgana (Paris), 1847, lire en ligne sur Gallica.
 Des lésions traumatiques que le fœtus peut éprouver pendant l'accouchement, [Concours pour l'agrégation. Thèse soutenue publiquement], Imprimerie de L. Martinet, 1853, Texte intégral.
